--- a/BackTest/2020-01-21 BackTest MBL.xlsx
+++ b/BackTest/2020-01-21 BackTest MBL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1705,7 +1705,7 @@
         <v>-188373.4679</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-98171.94200000004</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-97611.94200000004</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-139492.942</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-96635.94200000004</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-96635.94200000004</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-57555.94200000004</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-93590.94200000004</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-137873.942</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-339104.942</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-380959.942</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-352653.942</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-382552.942</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-307504.942</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-307504.942</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-357102.942</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-395735.942</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-360203.942</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-306504.942</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-341017.942</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-317802.942</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-119353.942</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-168221.942</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-168221.942</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-168221.942</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-198491.942</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-244497.942</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-266915.942</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-266915.942</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-312615.942</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-341930.942</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-241573.942</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-272635.942</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-318710.942</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-293126.942</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-267235.942</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-267235.942</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-287723.942</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-240686.942</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-240686.942</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-280629.942</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-317819.942</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-369082.942</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-327825.942</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>372558.7793000001</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>372558.7793000001</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12067,14 +12067,10 @@
         <v>317906.7793000001</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J354" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
@@ -12104,19 +12100,11 @@
         <v>342465.7793000001</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J355" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12148,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13900,14 +13882,10 @@
         <v>-1303335.425</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J409" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
@@ -13937,19 +13915,11 @@
         <v>-1353062.425</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="J410" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13981,14 +13951,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14215,14 +14179,10 @@
         <v>-1314346.425</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="J418" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
@@ -14255,14 +14215,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +14248,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15221,7 +15169,7 @@
         <v>-1013417.3518</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15287,7 +15235,7 @@
         <v>-941143.3517999998</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15320,7 +15268,7 @@
         <v>-981696.3517999998</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15353,7 +15301,7 @@
         <v>-939705.3517999998</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15419,7 +15367,7 @@
         <v>-818515.4594999999</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15452,7 +15400,7 @@
         <v>-766433.4594999999</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15485,7 +15433,7 @@
         <v>-875818.4934999999</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15551,7 +15499,7 @@
         <v>-920995.8318999999</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15584,7 +15532,7 @@
         <v>-920995.8318999999</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15716,7 +15664,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15749,7 +15697,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15782,7 +15730,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15848,7 +15796,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16145,7 +16093,7 @@
         <v>-1107256.7429</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16178,7 +16126,7 @@
         <v>-1081542.7429</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16211,7 +16159,7 @@
         <v>-1043848.7429</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16244,7 +16192,7 @@
         <v>-1004951.7429</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16277,7 +16225,7 @@
         <v>-1025998.7429</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16310,7 +16258,7 @@
         <v>-1025998.7429</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16343,7 +16291,7 @@
         <v>-995409.7429</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16376,7 +16324,7 @@
         <v>-1031081.7429</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16409,7 +16357,7 @@
         <v>-993361.7429</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16442,7 +16390,7 @@
         <v>-1209262.1847</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16475,7 +16423,7 @@
         <v>-1184590.1847</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16508,7 +16456,7 @@
         <v>-1184590.1847</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16541,7 +16489,7 @@
         <v>-1147254.1847</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16574,7 +16522,7 @@
         <v>-1169337.1847</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16607,7 +16555,7 @@
         <v>-1139988.1847</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16640,7 +16588,7 @@
         <v>-1110923.1847</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16673,7 +16621,7 @@
         <v>-1066806.1847</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16706,7 +16654,7 @@
         <v>-1108833.1847</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16739,7 +16687,7 @@
         <v>-1132236.1847</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16772,7 +16720,7 @@
         <v>-1174321.1847</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16805,7 +16753,7 @@
         <v>-1146299.1847</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16838,7 +16786,7 @@
         <v>-1190190.1847</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16871,7 +16819,7 @@
         <v>-1228900.1847</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16904,7 +16852,7 @@
         <v>-1252864.1847</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16937,7 +16885,7 @@
         <v>-1216258.1847</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16970,7 +16918,7 @@
         <v>-1273736.2567</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17003,7 +16951,7 @@
         <v>-1250561.2567</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17036,7 +16984,7 @@
         <v>-1212976.2567</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17069,7 +17017,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17102,7 +17050,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17135,7 +17083,7 @@
         <v>-1155304.2567</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17168,7 +17116,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17234,7 +17182,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17267,7 +17215,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17300,7 +17248,7 @@
         <v>-1670610.8637</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17333,7 +17281,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17366,7 +17314,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17399,7 +17347,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17432,7 +17380,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17465,7 +17413,7 @@
         <v>-1542672.8637</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17498,7 +17446,7 @@
         <v>-1569069.8637</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17531,7 +17479,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17564,7 +17512,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17597,7 +17545,7 @@
         <v>-1574312.8637</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17795,7 +17743,7 @@
         <v>-1748604.9129</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17828,7 +17776,7 @@
         <v>-1776393.9129</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17894,7 +17842,7 @@
         <v>-1845006.9129</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17927,7 +17875,7 @@
         <v>-1896539.9129</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -21458,7 +21406,7 @@
         <v>-2045466.3254</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21524,7 +21472,7 @@
         <v>-2068822.3254</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21557,7 +21505,7 @@
         <v>-2101767.3254</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21590,7 +21538,7 @@
         <v>-2140073.3254</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22910,7 +22858,7 @@
         <v>-1944096.3254</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -27992,7 +27940,7 @@
         <v>-2065450.0788</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28025,7 +27973,7 @@
         <v>-2032253.0788</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30236,10 +30184,14 @@
         <v>-2682104.1757</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J903" t="n">
+        <v>1.816</v>
+      </c>
       <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
@@ -30272,8 +30224,14 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30305,8 +30263,14 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32018,14 +31982,10 @@
         <v>-2541535.1863</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
-      </c>
-      <c r="I957" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J957" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
@@ -32055,975 +32015,875 @@
         <v>-2510061.1863</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
-      </c>
-      <c r="I958" t="n">
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="n">
+        <v>1</v>
+      </c>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="D959" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="E959" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="F959" t="n">
+        <v>32783</v>
+      </c>
+      <c r="G959" t="n">
+        <v>-2510061.1863</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="n">
+        <v>1</v>
+      </c>
+      <c r="M959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="C960" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="D960" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="E960" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="F960" t="n">
+        <v>43065</v>
+      </c>
+      <c r="G960" t="n">
+        <v>-2510061.1863</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
+      <c r="L960" t="n">
+        <v>1</v>
+      </c>
+      <c r="M960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C961" t="n">
         <v>1.818</v>
       </c>
-      <c r="J958" t="n">
+      <c r="D961" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E961" t="n">
         <v>1.818</v>
       </c>
-      <c r="K958" t="inlineStr">
+      <c r="F961" t="n">
+        <v>54659.1597</v>
+      </c>
+      <c r="G961" t="n">
+        <v>-2564720.346</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="n">
+        <v>1</v>
+      </c>
+      <c r="M961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D962" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E962" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F962" t="n">
+        <v>39843</v>
+      </c>
+      <c r="G962" t="n">
+        <v>-2564720.346</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
+      <c r="L962" t="n">
+        <v>1</v>
+      </c>
+      <c r="M962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C963" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E963" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F963" t="n">
+        <v>19036</v>
+      </c>
+      <c r="G963" t="n">
+        <v>-2564720.346</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
+      <c r="L963" t="n">
+        <v>1</v>
+      </c>
+      <c r="M963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C964" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D964" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E964" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F964" t="n">
+        <v>42102</v>
+      </c>
+      <c r="G964" t="n">
+        <v>-2564720.346</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="n">
+        <v>1</v>
+      </c>
+      <c r="M964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E965" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F965" t="n">
+        <v>26825</v>
+      </c>
+      <c r="G965" t="n">
+        <v>-2564720.346</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
+      <c r="L965" t="n">
+        <v>1</v>
+      </c>
+      <c r="M965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E966" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F966" t="n">
+        <v>37795</v>
+      </c>
+      <c r="G966" t="n">
+        <v>-2564720.346</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="n">
+        <v>1</v>
+      </c>
+      <c r="M966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="C967" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="E967" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="F967" t="n">
+        <v>34149</v>
+      </c>
+      <c r="G967" t="n">
+        <v>-2530571.346</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="n">
+        <v>1</v>
+      </c>
+      <c r="M967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C968" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E968" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F968" t="n">
+        <v>24437</v>
+      </c>
+      <c r="G968" t="n">
+        <v>-2555008.346</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
+      <c r="L968" t="n">
+        <v>1</v>
+      </c>
+      <c r="M968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C969" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D969" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E969" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F969" t="n">
+        <v>27260</v>
+      </c>
+      <c r="G969" t="n">
+        <v>-2555008.346</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
+      <c r="L969" t="n">
+        <v>1</v>
+      </c>
+      <c r="M969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C970" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E970" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="F970" t="n">
+        <v>55953.3291</v>
+      </c>
+      <c r="G970" t="n">
+        <v>-2610961.6751</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="n">
+        <v>1</v>
+      </c>
+      <c r="M970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="C971" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="E971" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="F971" t="n">
+        <v>42651</v>
+      </c>
+      <c r="G971" t="n">
+        <v>-2653612.6751</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="n">
+        <v>1</v>
+      </c>
+      <c r="M971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="C972" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="E972" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="F972" t="n">
+        <v>31178</v>
+      </c>
+      <c r="G972" t="n">
+        <v>-2684790.6751</v>
+      </c>
+      <c r="H972" t="n">
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="J972" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K972" t="inlineStr"/>
+      <c r="L972" t="n">
+        <v>1</v>
+      </c>
+      <c r="M972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C973" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E973" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F973" t="n">
+        <v>26074</v>
+      </c>
+      <c r="G973" t="n">
+        <v>-2710864.6751</v>
+      </c>
+      <c r="H973" t="n">
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="J973" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K973" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L958" t="n">
-        <v>1</v>
-      </c>
-      <c r="M958" t="inlineStr"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="C959" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="D959" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="E959" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="F959" t="n">
-        <v>32783</v>
-      </c>
-      <c r="G959" t="n">
-        <v>-2510061.1863</v>
-      </c>
-      <c r="H959" t="n">
-        <v>2</v>
-      </c>
-      <c r="I959" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J959" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K959" t="inlineStr">
+      <c r="L973" t="n">
+        <v>1</v>
+      </c>
+      <c r="M973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="D974" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E974" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="F974" t="n">
+        <v>40851</v>
+      </c>
+      <c r="G974" t="n">
+        <v>-2751715.6751</v>
+      </c>
+      <c r="H974" t="n">
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J974" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="K974" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L959" t="n">
-        <v>1</v>
-      </c>
-      <c r="M959" t="inlineStr"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="C960" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="D960" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="E960" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="F960" t="n">
-        <v>43065</v>
-      </c>
-      <c r="G960" t="n">
-        <v>-2510061.1863</v>
-      </c>
-      <c r="H960" t="n">
-        <v>2</v>
-      </c>
-      <c r="I960" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J960" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K960" t="inlineStr"/>
-      <c r="L960" t="n">
-        <v>1</v>
-      </c>
-      <c r="M960" t="inlineStr"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="C961" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D961" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="E961" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F961" t="n">
-        <v>54659.1597</v>
-      </c>
-      <c r="G961" t="n">
-        <v>-2564720.346</v>
-      </c>
-      <c r="H961" t="n">
-        <v>2</v>
-      </c>
-      <c r="I961" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J961" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K961" t="inlineStr">
+      <c r="L974" t="n">
+        <v>1</v>
+      </c>
+      <c r="M974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="C975" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="D975" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="E975" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="F975" t="n">
+        <v>22818</v>
+      </c>
+      <c r="G975" t="n">
+        <v>-2774533.6751</v>
+      </c>
+      <c r="H975" t="n">
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="J975" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="n">
+        <v>1</v>
+      </c>
+      <c r="M975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="C976" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="D976" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="E976" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="F976" t="n">
+        <v>31877</v>
+      </c>
+      <c r="G976" t="n">
+        <v>-2806410.6751</v>
+      </c>
+      <c r="H976" t="n">
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="J976" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L976" t="n">
+        <v>1</v>
+      </c>
+      <c r="M976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="C977" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="D977" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="E977" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="F977" t="n">
+        <v>39440</v>
+      </c>
+      <c r="G977" t="n">
+        <v>-2806410.6751</v>
+      </c>
+      <c r="H977" t="n">
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="J977" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L977" t="n">
+        <v>1</v>
+      </c>
+      <c r="M977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="C978" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="D978" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="F978" t="n">
+        <v>39484</v>
+      </c>
+      <c r="G978" t="n">
+        <v>-2806410.6751</v>
+      </c>
+      <c r="H978" t="n">
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="J978" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="n">
+        <v>1</v>
+      </c>
+      <c r="M978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C979" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D979" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E979" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F979" t="n">
+        <v>42183</v>
+      </c>
+      <c r="G979" t="n">
+        <v>-2764227.6751</v>
+      </c>
+      <c r="H979" t="n">
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="J979" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F980" t="n">
+        <v>36274</v>
+      </c>
+      <c r="G980" t="n">
+        <v>-2764227.6751</v>
+      </c>
+      <c r="H980" t="n">
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="J980" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F981" t="n">
+        <v>19580</v>
+      </c>
+      <c r="G981" t="n">
+        <v>-2764227.6751</v>
+      </c>
+      <c r="H981" t="n">
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="J981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="K981" t="inlineStr"/>
+      <c r="L981" t="n">
+        <v>1</v>
+      </c>
+      <c r="M981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C982" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E982" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="F982" t="n">
+        <v>116217.1067</v>
+      </c>
+      <c r="G982" t="n">
+        <v>-2880444.7818</v>
+      </c>
+      <c r="H982" t="n">
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="J982" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="K982" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L961" t="n">
-        <v>1</v>
-      </c>
-      <c r="M961" t="inlineStr"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C962" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D962" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E962" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F962" t="n">
-        <v>39843</v>
-      </c>
-      <c r="G962" t="n">
-        <v>-2564720.346</v>
-      </c>
-      <c r="H962" t="n">
-        <v>2</v>
-      </c>
-      <c r="I962" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J962" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L962" t="n">
-        <v>1</v>
-      </c>
-      <c r="M962" t="inlineStr"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C963" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D963" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E963" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F963" t="n">
-        <v>19036</v>
-      </c>
-      <c r="G963" t="n">
-        <v>-2564720.346</v>
-      </c>
-      <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L963" t="n">
-        <v>1</v>
-      </c>
-      <c r="M963" t="inlineStr"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C964" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D964" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E964" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F964" t="n">
-        <v>42102</v>
-      </c>
-      <c r="G964" t="n">
-        <v>-2564720.346</v>
-      </c>
-      <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
-      <c r="M964" t="inlineStr"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C965" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D965" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E965" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F965" t="n">
-        <v>26825</v>
-      </c>
-      <c r="G965" t="n">
-        <v>-2564720.346</v>
-      </c>
-      <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L965" t="n">
-        <v>1</v>
-      </c>
-      <c r="M965" t="inlineStr"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C966" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D966" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E966" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F966" t="n">
-        <v>37795</v>
-      </c>
-      <c r="G966" t="n">
-        <v>-2564720.346</v>
-      </c>
-      <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L966" t="n">
-        <v>1</v>
-      </c>
-      <c r="M966" t="inlineStr"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="C967" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="D967" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="E967" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="F967" t="n">
-        <v>34149</v>
-      </c>
-      <c r="G967" t="n">
-        <v>-2530571.346</v>
-      </c>
-      <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L967" t="n">
-        <v>1</v>
-      </c>
-      <c r="M967" t="inlineStr"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C968" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D968" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E968" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F968" t="n">
-        <v>24437</v>
-      </c>
-      <c r="G968" t="n">
-        <v>-2555008.346</v>
-      </c>
-      <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L968" t="n">
-        <v>1</v>
-      </c>
-      <c r="M968" t="inlineStr"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-      <c r="B969" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C969" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="D969" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E969" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="F969" t="n">
-        <v>27260</v>
-      </c>
-      <c r="G969" t="n">
-        <v>-2555008.346</v>
-      </c>
-      <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L969" t="n">
-        <v>1</v>
-      </c>
-      <c r="M969" t="inlineStr"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-      <c r="B970" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="C970" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="D970" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="E970" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="F970" t="n">
-        <v>55953.3291</v>
-      </c>
-      <c r="G970" t="n">
-        <v>-2610961.6751</v>
-      </c>
-      <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L970" t="n">
-        <v>1</v>
-      </c>
-      <c r="M970" t="inlineStr"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-      <c r="B971" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="C971" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="D971" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="E971" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="F971" t="n">
-        <v>42651</v>
-      </c>
-      <c r="G971" t="n">
-        <v>-2653612.6751</v>
-      </c>
-      <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L971" t="n">
-        <v>1</v>
-      </c>
-      <c r="M971" t="inlineStr"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-      <c r="B972" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="C972" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="D972" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="E972" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="F972" t="n">
-        <v>31178</v>
-      </c>
-      <c r="G972" t="n">
-        <v>-2684790.6751</v>
-      </c>
-      <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L972" t="n">
-        <v>1</v>
-      </c>
-      <c r="M972" t="inlineStr"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-      <c r="B973" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C973" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="D973" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E973" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="F973" t="n">
-        <v>26074</v>
-      </c>
-      <c r="G973" t="n">
-        <v>-2710864.6751</v>
-      </c>
-      <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L973" t="n">
-        <v>1</v>
-      </c>
-      <c r="M973" t="inlineStr"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-      <c r="B974" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="C974" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="D974" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="E974" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="F974" t="n">
-        <v>40851</v>
-      </c>
-      <c r="G974" t="n">
-        <v>-2751715.6751</v>
-      </c>
-      <c r="H974" t="n">
-        <v>2</v>
-      </c>
-      <c r="I974" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J974" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L974" t="n">
-        <v>1</v>
-      </c>
-      <c r="M974" t="inlineStr"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="B975" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="C975" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="D975" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="E975" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="F975" t="n">
-        <v>22818</v>
-      </c>
-      <c r="G975" t="n">
-        <v>-2774533.6751</v>
-      </c>
-      <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L975" t="n">
-        <v>1</v>
-      </c>
-      <c r="M975" t="inlineStr"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-      <c r="B976" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="C976" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="D976" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="E976" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="F976" t="n">
-        <v>31877</v>
-      </c>
-      <c r="G976" t="n">
-        <v>-2806410.6751</v>
-      </c>
-      <c r="H976" t="n">
-        <v>2</v>
-      </c>
-      <c r="I976" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J976" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L976" t="n">
-        <v>1</v>
-      </c>
-      <c r="M976" t="inlineStr"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-      <c r="B977" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="C977" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="D977" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="E977" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="F977" t="n">
-        <v>39440</v>
-      </c>
-      <c r="G977" t="n">
-        <v>-2806410.6751</v>
-      </c>
-      <c r="H977" t="n">
-        <v>2</v>
-      </c>
-      <c r="I977" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J977" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>1</v>
-      </c>
-      <c r="M977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-      <c r="B978" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="C978" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="D978" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="E978" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="F978" t="n">
-        <v>39484</v>
-      </c>
-      <c r="G978" t="n">
-        <v>-2806410.6751</v>
-      </c>
-      <c r="H978" t="n">
-        <v>2</v>
-      </c>
-      <c r="I978" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J978" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L978" t="n">
-        <v>1</v>
-      </c>
-      <c r="M978" t="inlineStr"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-      <c r="B979" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C979" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D979" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E979" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F979" t="n">
-        <v>42183</v>
-      </c>
-      <c r="G979" t="n">
-        <v>-2764227.6751</v>
-      </c>
-      <c r="H979" t="n">
-        <v>2</v>
-      </c>
-      <c r="I979" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J979" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F980" t="n">
-        <v>36274</v>
-      </c>
-      <c r="G980" t="n">
-        <v>-2764227.6751</v>
-      </c>
-      <c r="H980" t="n">
-        <v>2</v>
-      </c>
-      <c r="I980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J980" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F981" t="n">
-        <v>19580</v>
-      </c>
-      <c r="G981" t="n">
-        <v>-2764227.6751</v>
-      </c>
-      <c r="H981" t="n">
-        <v>2</v>
-      </c>
-      <c r="I981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J981" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L981" t="n">
-        <v>1</v>
-      </c>
-      <c r="M981" t="inlineStr"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C982" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="D982" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E982" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="F982" t="n">
-        <v>116217.1067</v>
-      </c>
-      <c r="G982" t="n">
-        <v>-2880444.7818</v>
-      </c>
-      <c r="H982" t="n">
-        <v>2</v>
-      </c>
-      <c r="I982" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J982" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33052,13 +32912,13 @@
         <v>-2860078.7818</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I983" t="n">
         <v>1.803</v>
       </c>
       <c r="J983" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K983" t="inlineStr">
         <is>
@@ -33093,13 +32953,13 @@
         <v>-2813845.7818</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I984" t="n">
         <v>1.805</v>
       </c>
       <c r="J984" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K984" t="inlineStr">
         <is>
@@ -33134,13 +32994,13 @@
         <v>-2813845.7818</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I985" t="n">
         <v>1.806</v>
       </c>
       <c r="J985" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K985" t="inlineStr">
         <is>
@@ -33175,13 +33035,13 @@
         <v>-2791048.7818</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I986" t="n">
         <v>1.806</v>
       </c>
       <c r="J986" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K986" t="inlineStr">
         <is>
@@ -33216,13 +33076,13 @@
         <v>-2829105.7818</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I987" t="n">
         <v>1.807</v>
       </c>
       <c r="J987" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K987" t="inlineStr">
         <is>
@@ -33257,13 +33117,13 @@
         <v>-2829105.7818</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I988" t="n">
         <v>1.806</v>
       </c>
       <c r="J988" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K988" t="inlineStr">
         <is>
@@ -33298,11 +33158,13 @@
         <v>-2854341.7818</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>1.806</v>
+      </c>
       <c r="J989" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K989" t="inlineStr">
         <is>
@@ -33337,13 +33199,13 @@
         <v>-2854341.7818</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I990" t="n">
         <v>1.805</v>
       </c>
       <c r="J990" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K990" t="inlineStr">
         <is>
@@ -33378,13 +33240,13 @@
         <v>-2854341.7818</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I991" t="n">
         <v>1.805</v>
       </c>
       <c r="J991" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K991" t="inlineStr">
         <is>
@@ -33419,13 +33281,13 @@
         <v>-2825820.7818</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I992" t="n">
         <v>1.805</v>
       </c>
       <c r="J992" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K992" t="inlineStr">
         <is>
@@ -33460,13 +33322,13 @@
         <v>-2825820.7818</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I993" t="n">
         <v>1.806</v>
       </c>
       <c r="J993" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K993" t="inlineStr">
         <is>
@@ -33501,13 +33363,13 @@
         <v>-2825820.7818</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I994" t="n">
         <v>1.806</v>
       </c>
       <c r="J994" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K994" t="inlineStr">
         <is>
@@ -33542,13 +33404,13 @@
         <v>-2854415.7818</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I995" t="n">
         <v>1.806</v>
       </c>
       <c r="J995" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K995" t="inlineStr">
         <is>
@@ -33583,11 +33445,13 @@
         <v>-2809972.7818</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>1.805</v>
+      </c>
       <c r="J996" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K996" t="inlineStr">
         <is>
@@ -33622,11 +33486,13 @@
         <v>-2848580.7818</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>1.806</v>
+      </c>
       <c r="J997" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K997" t="inlineStr">
         <is>
@@ -33661,11 +33527,13 @@
         <v>-2802315.7818</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>1.805</v>
+      </c>
       <c r="J998" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K998" t="inlineStr">
         <is>
@@ -33700,13 +33568,13 @@
         <v>-2831497.7818</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I999" t="n">
         <v>1.806</v>
       </c>
       <c r="J999" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K999" t="inlineStr">
         <is>
@@ -33741,13 +33609,13 @@
         <v>-2831497.7818</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1000" t="n">
         <v>1.805</v>
       </c>
       <c r="J1000" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1000" t="inlineStr">
         <is>
@@ -33782,13 +33650,13 @@
         <v>-2831497.7818</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1001" t="n">
         <v>1.805</v>
       </c>
       <c r="J1001" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1001" t="inlineStr">
         <is>
@@ -33823,13 +33691,13 @@
         <v>-2831497.7818</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1002" t="n">
         <v>1.805</v>
       </c>
       <c r="J1002" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1002" t="inlineStr">
         <is>
@@ -33864,13 +33732,13 @@
         <v>-2781395.4157</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1003" t="n">
         <v>1.805</v>
       </c>
       <c r="J1003" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1003" t="inlineStr">
         <is>
@@ -33905,13 +33773,13 @@
         <v>-2740935.4157</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1004" t="n">
         <v>1.81</v>
       </c>
       <c r="J1004" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1004" t="inlineStr">
         <is>
@@ -33946,13 +33814,13 @@
         <v>-2716129.4157</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1005" t="n">
         <v>1.811</v>
       </c>
       <c r="J1005" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1005" t="inlineStr">
         <is>
@@ -33987,13 +33855,13 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1006" t="n">
         <v>1.812</v>
       </c>
       <c r="J1006" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34028,13 +33896,13 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1007" t="n">
         <v>1.813</v>
       </c>
       <c r="J1007" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34069,13 +33937,13 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1008" t="n">
         <v>1.813</v>
       </c>
       <c r="J1008" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1008" t="inlineStr">
         <is>
@@ -34110,13 +33978,13 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1009" t="n">
         <v>1.811</v>
       </c>
       <c r="J1009" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1009" t="inlineStr">
         <is>
@@ -34151,13 +34019,13 @@
         <v>-2678238.4157</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1010" t="n">
         <v>1.811</v>
       </c>
       <c r="J1010" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1010" t="inlineStr">
         <is>
@@ -34192,13 +34060,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1011" t="inlineStr">
         <is>
@@ -34233,13 +34099,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34274,13 +34138,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34319,7 +34181,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34358,7 +34220,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34397,7 +34259,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34432,11 +34294,13 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1017" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34471,11 +34335,13 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1018" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34510,13 +34376,13 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1019" t="n">
         <v>1.812</v>
       </c>
       <c r="J1019" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34551,13 +34417,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34592,13 +34456,11 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
@@ -34633,13 +34495,11 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34674,13 +34534,11 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34715,13 +34573,11 @@
         <v>-2706715.4157</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1024" t="inlineStr">
         <is>
@@ -34756,13 +34612,11 @@
         <v>-2706715.4157</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1025" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1025" t="inlineStr">
         <is>
@@ -34797,13 +34651,13 @@
         <v>-2664625.4157</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1026" t="n">
         <v>1.812</v>
       </c>
       <c r="J1026" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1026" t="inlineStr">
         <is>
@@ -34838,13 +34692,13 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1027" t="n">
         <v>1.813</v>
       </c>
       <c r="J1027" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1027" t="inlineStr">
         <is>
@@ -34879,13 +34733,13 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1028" t="n">
         <v>1.816</v>
       </c>
       <c r="J1028" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1028" t="inlineStr">
         <is>
@@ -34920,13 +34774,11 @@
         <v>-2584574.4157</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1029" t="inlineStr">
         <is>
@@ -34961,13 +34813,11 @@
         <v>-2610735.4157</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35002,13 +34852,11 @@
         <v>-2579788.4157</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35043,13 +34891,11 @@
         <v>-2598567.4157</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1032" t="inlineStr">
         <is>
@@ -35084,13 +34930,11 @@
         <v>-2598567.4157</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35125,13 +34969,11 @@
         <v>-2634202.4157</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35166,13 +35008,13 @@
         <v>-2679658.4157</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1035" t="n">
         <v>1.814</v>
       </c>
       <c r="J1035" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35207,13 +35049,13 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1036" t="n">
         <v>1.812</v>
       </c>
       <c r="J1036" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35248,13 +35090,13 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1037" t="n">
         <v>1.813</v>
       </c>
       <c r="J1037" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35289,13 +35131,13 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1038" t="n">
         <v>1.813</v>
       </c>
       <c r="J1038" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35330,13 +35172,13 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1039" t="n">
         <v>1.812</v>
       </c>
       <c r="J1039" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35371,13 +35213,13 @@
         <v>-2659303.4157</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1040" t="n">
         <v>1.812</v>
       </c>
       <c r="J1040" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35412,13 +35254,13 @@
         <v>-2632115.4157</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1041" t="n">
         <v>1.813</v>
       </c>
       <c r="J1041" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35453,13 +35295,13 @@
         <v>-2676706.4157</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1042" t="n">
         <v>1.814</v>
       </c>
       <c r="J1042" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35494,13 +35336,13 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1043" t="n">
         <v>1.813</v>
       </c>
       <c r="J1043" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35535,13 +35377,13 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1044" t="n">
         <v>1.814</v>
       </c>
       <c r="J1044" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35576,13 +35418,13 @@
         <v>-2594876.4157</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1045" t="n">
         <v>1.814</v>
       </c>
       <c r="J1045" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35617,13 +35459,13 @@
         <v>-2631042.4157</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>1.816</v>
       </c>
       <c r="J1046" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1046" t="inlineStr">
         <is>
@@ -35658,13 +35500,13 @@
         <v>-2682883.4157</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>1.815</v>
       </c>
       <c r="J1047" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35699,13 +35541,13 @@
         <v>-2658009.4157</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>1.814</v>
       </c>
       <c r="J1048" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35740,13 +35582,13 @@
         <v>-2698049.4157</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>1.815</v>
       </c>
       <c r="J1049" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35781,13 +35623,13 @@
         <v>-2676589.4157</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>1.813</v>
       </c>
       <c r="J1050" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35822,13 +35664,13 @@
         <v>-2626146.4157</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1051" t="n">
         <v>1.815</v>
       </c>
       <c r="J1051" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35863,13 +35705,13 @@
         <v>-2661943.4157</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1052" t="n">
         <v>1.818</v>
       </c>
       <c r="J1052" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35904,13 +35746,13 @@
         <v>-2630837.4157</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1053" t="n">
         <v>1.816</v>
       </c>
       <c r="J1053" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35945,13 +35787,11 @@
         <v>-2676274.4157</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1054" t="inlineStr">
         <is>
@@ -35986,13 +35826,11 @@
         <v>-2624332.4157</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36027,13 +35865,11 @@
         <v>-2588300.4157</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
@@ -36068,13 +35904,11 @@
         <v>-2628208.4157</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
@@ -36113,7 +35947,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
@@ -36148,13 +35982,11 @@
         <v>-2550351.4157</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1059" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36189,13 +36021,11 @@
         <v>-2550351.4157</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36230,13 +36060,11 @@
         <v>-2518423.4157</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1061" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36271,13 +36099,11 @@
         <v>-2546650.4157</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1062" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36312,13 +36138,11 @@
         <v>-2509074.4157</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
@@ -36353,13 +36177,11 @@
         <v>-2538602.4157</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
@@ -36394,13 +36216,11 @@
         <v>-2483947.4157</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
@@ -36435,13 +36255,11 @@
         <v>-2517607.4157</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -36476,13 +36294,11 @@
         <v>-2517607.4157</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -36517,13 +36333,11 @@
         <v>-2517607.4157</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -36558,13 +36372,11 @@
         <v>-2517607.4157</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -36599,13 +36411,11 @@
         <v>-2517607.4157</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -36640,13 +36450,11 @@
         <v>-2489225.4157</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36681,13 +36489,11 @@
         <v>-2409995.1056</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36726,7 +36532,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36765,7 +36571,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36804,7 +36610,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36843,7 +36649,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36882,7 +36688,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36921,7 +36727,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36960,7 +36766,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -36995,13 +36801,11 @@
         <v>-2479046.1056</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -37040,7 +36844,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -37079,7 +36883,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -37114,13 +36918,11 @@
         <v>-2453654.1056</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1083" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
@@ -37159,7 +36961,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
@@ -37198,7 +37000,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
@@ -37237,7 +37039,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
@@ -37276,7 +37078,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1087" t="inlineStr">
         <is>
@@ -37315,7 +37117,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
@@ -37354,7 +37156,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
@@ -37393,7 +37195,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
@@ -37432,7 +37234,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
@@ -37471,7 +37273,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -37510,7 +37312,7 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -37549,7 +37351,7 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -37588,7 +37390,7 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -37623,13 +37425,11 @@
         <v>-2410766.1056</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -37664,13 +37464,11 @@
         <v>-2363778.1056</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37705,13 +37503,11 @@
         <v>-2363778.1056</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -37746,13 +37542,11 @@
         <v>-2389639.1056</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1099" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37791,7 +37585,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37830,7 +37624,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -37869,7 +37663,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -37908,7 +37702,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -37943,13 +37737,11 @@
         <v>-2418275.1056</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -37984,13 +37776,11 @@
         <v>-2418275.1056</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -38025,13 +37815,11 @@
         <v>-2393125.1056</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -38070,7 +37858,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -38109,7 +37897,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -38148,7 +37936,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -38183,13 +37971,11 @@
         <v>-2431976.1056</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -38224,13 +38010,11 @@
         <v>-2431976.1056</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -38265,13 +38049,11 @@
         <v>-2384552.1056</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -38310,7 +38092,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -38349,7 +38131,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -38388,7 +38170,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -38427,7 +38209,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -38466,7 +38248,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -38505,7 +38287,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -38544,7 +38326,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -38583,7 +38365,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -38622,7 +38404,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -38657,13 +38439,11 @@
         <v>-2474166.1056</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -38698,13 +38478,11 @@
         <v>-2474166.1056</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1123" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -38739,13 +38517,11 @@
         <v>-2474166.1056</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1124" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -38780,13 +38556,11 @@
         <v>-2442416.1056</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1125" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -38825,7 +38599,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -38864,7 +38638,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38899,13 +38673,11 @@
         <v>-2414172.1056</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38940,13 +38712,11 @@
         <v>-2414172.1056</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38985,7 +38755,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -39024,7 +38794,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -39063,7 +38833,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -39102,7 +38872,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -39141,7 +38911,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -39180,7 +38950,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -39219,7 +38989,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -39258,7 +39028,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -39297,7 +39067,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -39332,13 +39102,11 @@
         <v>-2398301.1056</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -39373,13 +39141,11 @@
         <v>-2374098.1056</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1140" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -39414,13 +39180,11 @@
         <v>-2335590.1056</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -39455,13 +39219,11 @@
         <v>-2300216.1056</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1142" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -39500,7 +39262,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -39539,7 +39301,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -39578,7 +39340,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -39617,7 +39379,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -39656,7 +39418,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -39695,7 +39457,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -39734,7 +39496,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -39773,7 +39535,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -39812,7 +39574,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -39847,13 +39609,11 @@
         <v>-2279841.1056</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -39888,13 +39648,11 @@
         <v>-2279841.1056</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39929,13 +39687,11 @@
         <v>-2233136.1056</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -39970,13 +39726,11 @@
         <v>-2193890.1056</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -40011,13 +39765,11 @@
         <v>-2218337.1056</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -40052,13 +39804,11 @@
         <v>-2218337.1056</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -40093,13 +39843,11 @@
         <v>-2218337.1056</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -40134,13 +39882,11 @@
         <v>-2218337.1056</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -40179,7 +39925,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -40218,7 +39964,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -40257,7 +40003,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -40296,7 +40042,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -40335,7 +40081,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -40374,7 +40120,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -40413,7 +40159,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -40452,7 +40198,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -40487,13 +40233,11 @@
         <v>-2156700.1056</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1168" t="n">
-        <v>1.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -40528,13 +40272,11 @@
         <v>-2189684.1056</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1169" t="n">
-        <v>1.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -40569,13 +40311,11 @@
         <v>-2210322.1056</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -40610,13 +40350,11 @@
         <v>-2233277.1056</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1171" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -40655,7 +40393,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -40694,7 +40432,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -40733,7 +40471,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -40772,7 +40510,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -40811,7 +40549,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -40850,7 +40588,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -40889,7 +40627,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -40928,7 +40666,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40967,7 +40705,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -41006,7 +40744,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -41045,7 +40783,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -41084,7 +40822,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -41123,7 +40861,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -41162,7 +40900,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -41201,7 +40939,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -41240,7 +40978,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -41275,13 +41013,11 @@
         <v>-2400166.1056</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -41316,13 +41052,11 @@
         <v>-2400166.1056</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -41361,7 +41095,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -41396,13 +41130,11 @@
         <v>-2370354.1056</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1191" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -41437,13 +41169,11 @@
         <v>-2370354.1056</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -41478,13 +41208,11 @@
         <v>-2396877.1056</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -41519,13 +41247,11 @@
         <v>-2429300.1056</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1194" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -41564,7 +41290,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -41603,7 +41329,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -41642,7 +41368,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -41677,13 +41403,11 @@
         <v>-2460233.5484</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -41718,13 +41442,11 @@
         <v>-2430656.5484</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -41759,13 +41481,11 @@
         <v>-2409415.5484</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -41800,13 +41520,11 @@
         <v>-2456739.5484</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -41841,13 +41559,11 @@
         <v>-2456739.5484</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -41882,13 +41598,11 @@
         <v>-2456739.5484</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -41923,13 +41637,11 @@
         <v>-2456739.5484</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -41964,13 +41676,11 @@
         <v>-2402638.5484</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -42005,13 +41715,11 @@
         <v>-2357890.5484</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -42046,13 +41754,11 @@
         <v>-2460368.5484</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -42087,13 +41793,11 @@
         <v>-2460368.5484</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -42128,13 +41832,11 @@
         <v>-2415699.5484</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -42169,13 +41871,11 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -42210,13 +41910,11 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -42251,13 +41949,11 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -42292,13 +41988,11 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1213" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -42333,13 +42027,13 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1214" t="n">
         <v>1.811</v>
       </c>
       <c r="J1214" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -42374,13 +42068,11 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -42415,13 +42107,13 @@
         <v>-2421936.5484</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1216" t="n">
         <v>1.811</v>
       </c>
       <c r="J1216" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -42456,13 +42148,11 @@
         <v>-2445201.5484</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -42497,13 +42187,13 @@
         <v>-2445201.5484</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1218" t="n">
         <v>1.811</v>
       </c>
       <c r="J1218" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -42538,13 +42228,11 @@
         <v>-2416026.5484</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -42579,13 +42267,13 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1220" t="n">
         <v>1.812</v>
       </c>
       <c r="J1220" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -42620,13 +42308,11 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1221" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -42661,13 +42347,11 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1222" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -42702,13 +42386,11 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -42743,13 +42425,11 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -42784,13 +42464,13 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1225" t="n">
         <v>1.811</v>
       </c>
       <c r="J1225" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -42825,13 +42505,11 @@
         <v>-2412908.5484</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1226" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -42866,13 +42544,11 @@
         <v>-2440485.5484</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1227" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -42907,13 +42583,11 @@
         <v>-2440485.5484</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1228" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -42948,13 +42622,11 @@
         <v>-2405900.5484</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1229" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -42989,13 +42661,11 @@
         <v>-2405900.5484</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -43030,13 +42700,11 @@
         <v>-2436048.5484</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -43071,13 +42739,13 @@
         <v>-2414153.5484</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1232" t="n">
         <v>1.811</v>
       </c>
       <c r="J1232" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -43112,13 +42780,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1233" t="n">
         <v>1.812</v>
       </c>
       <c r="J1233" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -43153,13 +42821,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1234" t="n">
         <v>1.811</v>
       </c>
       <c r="J1234" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -43194,13 +42862,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1235" t="n">
         <v>1.811</v>
       </c>
       <c r="J1235" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -43235,13 +42903,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1236" t="n">
         <v>1.811</v>
       </c>
       <c r="J1236" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -43276,13 +42944,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1237" t="n">
         <v>1.811</v>
       </c>
       <c r="J1237" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -43317,13 +42985,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1238" t="n">
         <v>1.811</v>
       </c>
       <c r="J1238" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -43358,13 +43026,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1239" t="n">
         <v>1.811</v>
       </c>
       <c r="J1239" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -43399,13 +43067,13 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1240" t="n">
         <v>1.811</v>
       </c>
       <c r="J1240" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -43440,13 +43108,13 @@
         <v>-2394383.5484</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1241" t="n">
         <v>1.811</v>
       </c>
       <c r="J1241" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -43481,13 +43149,13 @@
         <v>-2361714.5484</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1242" t="n">
         <v>1.813</v>
       </c>
       <c r="J1242" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -43522,13 +43190,13 @@
         <v>-2321208.5484</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1243" t="n">
         <v>1.814</v>
       </c>
       <c r="J1243" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -43563,13 +43231,11 @@
         <v>-2321208.5484</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -43604,13 +43270,11 @@
         <v>-2297871.5484</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -43645,13 +43309,11 @@
         <v>-2327059.5484</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -43686,13 +43348,11 @@
         <v>-2269731.5484</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -43727,13 +43387,11 @@
         <v>-2311414.5484</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -43768,13 +43426,11 @@
         <v>-2287473.5484</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -43809,13 +43465,11 @@
         <v>-2308798.5484</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -43850,13 +43504,11 @@
         <v>-2282620.5484</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -43891,13 +43543,13 @@
         <v>-2282620.5484</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>1.814</v>
       </c>
       <c r="J1252" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -43932,13 +43584,11 @@
         <v>-2328553.5484</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -43973,13 +43623,13 @@
         <v>-2353159.5484</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>1.813</v>
       </c>
       <c r="J1254" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -44014,13 +43664,13 @@
         <v>-2334721.5484</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>1.811</v>
       </c>
       <c r="J1255" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -44055,13 +43705,13 @@
         <v>-2295627.5484</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1256" t="n">
         <v>1.812</v>
       </c>
       <c r="J1256" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -44096,13 +43746,13 @@
         <v>-2295627.5484</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>1.813</v>
       </c>
       <c r="J1257" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -44137,13 +43787,11 @@
         <v>-2317650.5484</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -44178,13 +43826,13 @@
         <v>-2284434.5484</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>1.812</v>
       </c>
       <c r="J1259" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -44219,13 +43867,11 @@
         <v>-2243162.5484</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1260" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -44260,13 +43906,11 @@
         <v>-2261139.5484</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -44301,13 +43945,11 @@
         <v>-2301248.5484</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1262" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -44342,13 +43984,11 @@
         <v>-2344222.5484</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1263" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -44383,13 +44023,13 @@
         <v>-2344222.5484</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>1.811</v>
       </c>
       <c r="J1264" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -44424,13 +44064,13 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>1.811</v>
       </c>
       <c r="J1265" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -44465,13 +44105,13 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>1.812</v>
       </c>
       <c r="J1266" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -44506,13 +44146,13 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>1.812</v>
       </c>
       <c r="J1267" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -44547,13 +44187,11 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1268" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -44588,13 +44226,11 @@
         <v>-2280983.5484</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1269" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -44629,13 +44265,11 @@
         <v>-2322886.5484</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1270" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -44670,13 +44304,13 @@
         <v>-2600182.5484</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1271" t="n">
         <v>1.812</v>
       </c>
       <c r="J1271" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -44711,13 +44345,13 @@
         <v>-2571060.5484</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1272" t="n">
         <v>1.81</v>
       </c>
       <c r="J1272" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -44752,13 +44386,13 @@
         <v>-2571060.5484</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1273" t="n">
         <v>1.811</v>
       </c>
       <c r="J1273" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -44793,13 +44427,13 @@
         <v>-2537505.5484</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>1.811</v>
       </c>
       <c r="J1274" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -44834,13 +44468,13 @@
         <v>-2563151.5484</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>1.812</v>
       </c>
       <c r="J1275" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -44875,13 +44509,13 @@
         <v>-2543659.5484</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1276" t="n">
         <v>1.811</v>
       </c>
       <c r="J1276" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -44916,13 +44550,11 @@
         <v>-2575352.5484</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1277" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -44957,13 +44589,13 @@
         <v>-2606511.5484</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1278" t="n">
         <v>1.812</v>
       </c>
       <c r="J1278" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -44998,13 +44630,13 @@
         <v>-2561580.5484</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1279" t="n">
         <v>1.811</v>
       </c>
       <c r="J1279" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -45039,13 +44671,13 @@
         <v>-2561580.5484</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1280" t="n">
         <v>1.813</v>
       </c>
       <c r="J1280" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -45080,13 +44712,11 @@
         <v>-2523452.5484</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1281" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -45121,13 +44751,11 @@
         <v>-2542871.5484</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1282" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -45162,13 +44790,11 @@
         <v>-2592523.5484</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -45203,13 +44829,11 @@
         <v>-2559154.5484</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1284" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -45244,13 +44868,11 @@
         <v>-2595436.5484</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -45285,13 +44907,11 @@
         <v>-2576850.5484</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1286" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -45326,13 +44946,11 @@
         <v>-2552113.5484</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -45367,13 +44985,13 @@
         <v>-2528584.5484</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1288" t="n">
         <v>1.813</v>
       </c>
       <c r="J1288" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -45408,13 +45026,11 @@
         <v>-2486408.5484</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -45449,13 +45065,11 @@
         <v>-2458160.5484</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1290" t="inlineStr">
         <is>
@@ -45490,13 +45104,11 @@
         <v>-2423180.5484</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1291" t="inlineStr">
         <is>
@@ -45531,13 +45143,11 @@
         <v>-2460119.5484</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>1.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1292" t="inlineStr">
         <is>
@@ -45572,13 +45182,11 @@
         <v>-2493364.5484</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1293" t="inlineStr">
         <is>
@@ -45613,13 +45221,11 @@
         <v>-2544711.5484</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1294" t="inlineStr">
         <is>
@@ -45654,13 +45260,11 @@
         <v>-2544711.5484</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1295" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1295" t="inlineStr">
         <is>
@@ -45695,13 +45299,11 @@
         <v>-2586728.5484</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1296" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1296" t="inlineStr">
         <is>
@@ -45736,13 +45338,11 @@
         <v>-2552782.5484</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1297" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1297" t="inlineStr">
         <is>
@@ -45777,13 +45377,11 @@
         <v>-2602367.5484</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1298" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1298" t="inlineStr">
         <is>
@@ -45818,13 +45416,11 @@
         <v>-2602367.5484</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1299" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1299" t="inlineStr">
         <is>
@@ -45859,13 +45455,11 @@
         <v>-2602367.5484</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1300" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1300" t="inlineStr">
         <is>
@@ -45900,13 +45494,11 @@
         <v>-2602367.5484</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1301" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1301" t="inlineStr">
         <is>
@@ -45941,13 +45533,11 @@
         <v>-2578458.5484</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1302" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1302" t="inlineStr">
         <is>
@@ -45982,13 +45572,11 @@
         <v>-2617926.5484</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1303" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1303" t="inlineStr">
         <is>
@@ -46023,11 +45611,13 @@
         <v>-2593936.5484</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>1.814</v>
+      </c>
       <c r="J1304" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1304" t="inlineStr">
         <is>
@@ -46062,13 +45652,11 @@
         <v>-2641792.5484</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1305" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1305" t="inlineStr">
         <is>
@@ -46103,13 +45691,11 @@
         <v>-2693035.5484</v>
       </c>
       <c r="H1306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1306" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1306" t="inlineStr">
         <is>
@@ -46144,13 +45730,11 @@
         <v>-2655780.5484</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1307" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1307" t="inlineStr">
         <is>
@@ -46185,13 +45769,13 @@
         <v>-2655780.5484</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1308" t="n">
         <v>1.813</v>
       </c>
       <c r="J1308" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1308" t="inlineStr">
         <is>
@@ -46226,13 +45810,13 @@
         <v>-2690341.5484</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1309" t="n">
         <v>1.813</v>
       </c>
       <c r="J1309" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1309" t="inlineStr">
         <is>
@@ -46267,13 +45851,13 @@
         <v>-2690341.5484</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1310" t="n">
         <v>1.812</v>
       </c>
       <c r="J1310" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1310" t="inlineStr">
         <is>
@@ -46308,13 +45892,13 @@
         <v>-2690341.5484</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1311" t="n">
         <v>1.812</v>
       </c>
       <c r="J1311" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1311" t="inlineStr">
         <is>
@@ -46349,13 +45933,13 @@
         <v>-2722883.5484</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1312" t="n">
         <v>1.812</v>
       </c>
       <c r="J1312" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="K1312" t="inlineStr">
         <is>
@@ -46368,6 +45952,6 @@
       <c r="M1312" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MBL.xlsx
+++ b/BackTest/2020-01-21 BackTest MBL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>-226803.4679</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-188373.4679</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-252287.4679</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-191420.942</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-187419.942</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-226309.942</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-100718.942</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-144213.942</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-187167.942</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-248332.942</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-194501.942</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-246394.5006</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>372558.7793000001</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>430704.7793000001</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>389512.7793000001</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>424918.7793000001</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>346384.7793000001</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1227208.425</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-767092.7863999999</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-806805.7863999999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-770009.7863999999</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-962429.3517999998</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1107256.7429</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1081542.7429</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-1043848.7429</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1004951.7429</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1025998.7429</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1025998.7429</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-995409.7429</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1031081.7429</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-993361.7429</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1209262.1847</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1184590.1847</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1184590.1847</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1147254.1847</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1169337.1847</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1139988.1847</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1110923.1847</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1066806.1847</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1108833.1847</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1132236.1847</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1174321.1847</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1146299.1847</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1190190.1847</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-1228900.1847</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-1252864.1847</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-1216258.1847</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-1273736.2567</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-1250561.2567</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-1212976.2567</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-1155304.2567</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-1670610.8637</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1542672.8637</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1569069.8637</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1574312.8637</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1748604.9129</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1776393.9129</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1845006.9129</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1896539.9129</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-1944096.3254</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -30184,14 +30184,10 @@
         <v>-2682104.1757</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="J903" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
@@ -30224,14 +30220,8 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30263,14 +30253,8 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30662,10 +30646,14 @@
         <v>-2551800.1757</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="J917" t="n">
+        <v>1.818</v>
+      </c>
       <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
@@ -30695,11 +30683,19 @@
         <v>-2500913.1757</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="J918" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30728,11 +30724,19 @@
         <v>-2469391.1757</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="J919" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30794,10 +30798,14 @@
         <v>-2453146.1757</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="J921" t="n">
+        <v>1.819</v>
+      </c>
       <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
@@ -30830,8 +30838,14 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30860,11 +30874,19 @@
         <v>-2505271.1757</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="J923" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30893,10 +30915,14 @@
         <v>-2463328.1757</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="J924" t="n">
+        <v>1.818</v>
+      </c>
       <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
@@ -30926,11 +30952,19 @@
         <v>-2432798.1757</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J925" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30962,8 +30996,14 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32477,14 +32517,10 @@
         <v>-2684790.6751</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="J972" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
@@ -32514,19 +32550,11 @@
         <v>-2710864.6751</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="J973" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32555,19 +32583,11 @@
         <v>-2751715.6751</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
-      </c>
-      <c r="I974" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J974" t="n">
-        <v>1.816</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32596,14 +32616,10 @@
         <v>-2774533.6751</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="J975" t="n">
-        <v>1.807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
@@ -32633,19 +32649,11 @@
         <v>-2806410.6751</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
-      </c>
-      <c r="I976" t="n">
-        <v>1.805</v>
-      </c>
-      <c r="J976" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32674,19 +32682,11 @@
         <v>-2806410.6751</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
-      </c>
-      <c r="I977" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J977" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33486,11 +33486,9 @@
         <v>-2848580.7818</v>
       </c>
       <c r="H997" t="n">
-        <v>1</v>
-      </c>
-      <c r="I997" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
       <c r="J997" t="n">
         <v>1.804</v>
       </c>
@@ -33814,11 +33812,9 @@
         <v>-2716129.4157</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="n">
         <v>1.804</v>
       </c>
@@ -33855,11 +33851,9 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="n">
         <v>1.804</v>
       </c>
@@ -33896,11 +33890,9 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
         <v>1.804</v>
       </c>
@@ -33937,11 +33929,9 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1008" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="n">
         <v>1.804</v>
       </c>
@@ -33978,11 +33968,9 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="n">
         <v>1.804</v>
       </c>
@@ -34019,11 +34007,9 @@
         <v>-2678238.4157</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="n">
         <v>1.804</v>
       </c>
@@ -34294,11 +34280,9 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="n">
         <v>1.804</v>
       </c>
@@ -34335,11 +34319,9 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="n">
         <v>1.804</v>
       </c>
@@ -34376,11 +34358,9 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="n">
         <v>1.804</v>
       </c>
@@ -34651,11 +34631,9 @@
         <v>-2664625.4157</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="n">
         <v>1.804</v>
       </c>
@@ -34692,11 +34670,9 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="n">
         <v>1.804</v>
       </c>
@@ -34733,11 +34709,9 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="n">
         <v>1.804</v>
       </c>
@@ -35008,11 +34982,9 @@
         <v>-2679658.4157</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="n">
         <v>1.804</v>
       </c>
@@ -35049,11 +35021,9 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="n">
         <v>1.804</v>
       </c>
@@ -35090,11 +35060,9 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="n">
         <v>1.804</v>
       </c>
@@ -35131,11 +35099,9 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1038" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="n">
         <v>1.804</v>
       </c>
@@ -35172,11 +35138,9 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1039" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="n">
         <v>1.804</v>
       </c>
@@ -35213,11 +35177,9 @@
         <v>-2659303.4157</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="n">
         <v>1.804</v>
       </c>
@@ -35254,11 +35216,9 @@
         <v>-2632115.4157</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="n">
         <v>1.804</v>
       </c>
@@ -35295,11 +35255,9 @@
         <v>-2676706.4157</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="n">
         <v>1.804</v>
       </c>
@@ -35336,11 +35294,9 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="n">
         <v>1.804</v>
       </c>
@@ -35377,11 +35333,9 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="n">
         <v>1.804</v>
       </c>
@@ -35418,11 +35372,9 @@
         <v>-2594876.4157</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="n">
         <v>1.804</v>
       </c>
@@ -35459,11 +35411,9 @@
         <v>-2631042.4157</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
         <v>1.804</v>
       </c>
@@ -35500,11 +35450,9 @@
         <v>-2682883.4157</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
         <v>1.804</v>
       </c>
@@ -35541,11 +35489,9 @@
         <v>-2658009.4157</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
         <v>1.804</v>
       </c>
@@ -35582,11 +35528,9 @@
         <v>-2698049.4157</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="n">
         <v>1.804</v>
       </c>
@@ -35623,11 +35567,9 @@
         <v>-2676589.4157</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
         <v>1.804</v>
       </c>
@@ -35664,11 +35606,9 @@
         <v>-2626146.4157</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>1.815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="n">
         <v>1.804</v>
       </c>
@@ -35705,11 +35645,9 @@
         <v>-2661943.4157</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="n">
         <v>1.804</v>
       </c>
@@ -35746,11 +35684,9 @@
         <v>-2630837.4157</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>1.816</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="n">
         <v>1.804</v>
       </c>
@@ -42027,11 +41963,9 @@
         <v>-2469784.5484</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
         <v>1.804</v>
       </c>
@@ -42107,11 +42041,9 @@
         <v>-2421936.5484</v>
       </c>
       <c r="H1216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1216" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
         <v>1.804</v>
       </c>
@@ -42187,11 +42119,9 @@
         <v>-2445201.5484</v>
       </c>
       <c r="H1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="n">
         <v>1.804</v>
       </c>
@@ -42267,11 +42197,9 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1220" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="n">
         <v>1.804</v>
       </c>
@@ -42464,11 +42392,9 @@
         <v>-2442882.5484</v>
       </c>
       <c r="H1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="n">
         <v>1.804</v>
       </c>
@@ -42739,11 +42665,9 @@
         <v>-2414153.5484</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="n">
         <v>1.804</v>
       </c>
@@ -42780,11 +42704,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="n">
         <v>1.804</v>
       </c>
@@ -42821,11 +42743,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="n">
         <v>1.804</v>
       </c>
@@ -42862,11 +42782,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="n">
         <v>1.804</v>
       </c>
@@ -42903,11 +42821,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="n">
         <v>1.804</v>
       </c>
@@ -42944,11 +42860,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="n">
         <v>1.804</v>
       </c>
@@ -42985,11 +42899,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="n">
         <v>1.804</v>
       </c>
@@ -43026,11 +42938,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="n">
         <v>1.804</v>
       </c>
@@ -43067,11 +42977,9 @@
         <v>-2447061.5484</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="n">
         <v>1.804</v>
       </c>
@@ -43108,11 +43016,9 @@
         <v>-2394383.5484</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="n">
         <v>1.804</v>
       </c>
@@ -43149,11 +43055,9 @@
         <v>-2361714.5484</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="n">
         <v>1.804</v>
       </c>
@@ -43190,11 +43094,9 @@
         <v>-2321208.5484</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="n">
         <v>1.804</v>
       </c>
@@ -43543,11 +43445,9 @@
         <v>-2282620.5484</v>
       </c>
       <c r="H1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="n">
         <v>1.804</v>
       </c>
@@ -43623,11 +43523,9 @@
         <v>-2353159.5484</v>
       </c>
       <c r="H1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="n">
         <v>1.804</v>
       </c>
@@ -43664,11 +43562,9 @@
         <v>-2334721.5484</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="n">
         <v>1.804</v>
       </c>
@@ -43705,11 +43601,9 @@
         <v>-2295627.5484</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
         <v>1.804</v>
       </c>
@@ -43746,11 +43640,9 @@
         <v>-2295627.5484</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
         <v>1.804</v>
       </c>
@@ -43826,11 +43718,9 @@
         <v>-2284434.5484</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
         <v>1.804</v>
       </c>
@@ -44023,11 +43913,9 @@
         <v>-2344222.5484</v>
       </c>
       <c r="H1264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1264" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="n">
         <v>1.804</v>
       </c>
@@ -44064,11 +43952,9 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1265" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="n">
         <v>1.804</v>
       </c>
@@ -44105,11 +43991,9 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="n">
         <v>1.804</v>
       </c>
@@ -44146,11 +44030,9 @@
         <v>-2318681.5484</v>
       </c>
       <c r="H1267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="n">
         <v>1.804</v>
       </c>
@@ -44304,11 +44186,9 @@
         <v>-2600182.5484</v>
       </c>
       <c r="H1271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1271" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="n">
         <v>1.804</v>
       </c>
@@ -44345,11 +44225,9 @@
         <v>-2571060.5484</v>
       </c>
       <c r="H1272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1272" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="n">
         <v>1.804</v>
       </c>
@@ -44386,11 +44264,9 @@
         <v>-2571060.5484</v>
       </c>
       <c r="H1273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1273" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="n">
         <v>1.804</v>
       </c>
@@ -44427,11 +44303,9 @@
         <v>-2537505.5484</v>
       </c>
       <c r="H1274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1274" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="n">
         <v>1.804</v>
       </c>
@@ -44468,11 +44342,9 @@
         <v>-2563151.5484</v>
       </c>
       <c r="H1275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="n">
         <v>1.804</v>
       </c>
@@ -44509,11 +44381,9 @@
         <v>-2543659.5484</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="n">
         <v>1.804</v>
       </c>
@@ -44589,11 +44459,9 @@
         <v>-2606511.5484</v>
       </c>
       <c r="H1278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1278" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="n">
         <v>1.804</v>
       </c>
@@ -44630,11 +44498,9 @@
         <v>-2561580.5484</v>
       </c>
       <c r="H1279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1279" t="n">
-        <v>1.811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="n">
         <v>1.804</v>
       </c>
@@ -44671,11 +44537,9 @@
         <v>-2561580.5484</v>
       </c>
       <c r="H1280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1280" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
         <v>1.804</v>
       </c>
@@ -44985,11 +44849,9 @@
         <v>-2528584.5484</v>
       </c>
       <c r="H1288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
         <v>1.804</v>
       </c>
@@ -45611,11 +45473,9 @@
         <v>-2593936.5484</v>
       </c>
       <c r="H1304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1304" t="n">
-        <v>1.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="n">
         <v>1.804</v>
       </c>
@@ -45769,11 +45629,9 @@
         <v>-2655780.5484</v>
       </c>
       <c r="H1308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1308" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="n">
         <v>1.804</v>
       </c>
@@ -45810,11 +45668,9 @@
         <v>-2690341.5484</v>
       </c>
       <c r="H1309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1309" t="n">
-        <v>1.813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="n">
         <v>1.804</v>
       </c>
@@ -45851,11 +45707,9 @@
         <v>-2690341.5484</v>
       </c>
       <c r="H1310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1310" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="n">
         <v>1.804</v>
       </c>
@@ -45892,11 +45746,9 @@
         <v>-2690341.5484</v>
       </c>
       <c r="H1311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1311" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="n">
         <v>1.804</v>
       </c>
@@ -45933,11 +45785,9 @@
         <v>-2722883.5484</v>
       </c>
       <c r="H1312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1312" t="n">
-        <v>1.812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="n">
         <v>1.804</v>
       </c>
@@ -45952,6 +45802,6 @@
       <c r="M1312" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MBL.xlsx
+++ b/BackTest/2020-01-21 BackTest MBL.xlsx
@@ -1672,7 +1672,7 @@
         <v>-226803.4679</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-188373.4679</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-206206.4679</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-252287.4679</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-191420.942</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-229019.942</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-187419.942</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-226309.942</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-97611.94200000004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-139492.942</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-57555.94200000004</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-93590.94200000004</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-137873.942</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-137873.942</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-100718.942</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-228609.942</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-248332.942</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-194501.942</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-246394.5006</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>372558.7793000001</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>416904.7793000001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>383539.7793000001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>419262.7793000001</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>394964.7793000001</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>430704.7793000001</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>389512.7793000001</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>424918.7793000001</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>461697.7793000001</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>433000.7793000001</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>383643.7793000001</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>346384.7793000001</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1227208.425</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-767092.7863999999</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-806805.7863999999</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-770009.7863999999</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-918843.3517999998</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-962429.3517999998</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-920995.8318999999</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-920995.8318999999</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-884856.8318999999</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-922007.8318999999</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-964094.8318999999</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-995754.8318999999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-970609.8318999999</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-926202.8318999999</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-884176.8318999999</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-928171.8318999999</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-958599.8318999999</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1014461.8319</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1169337.1847</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1139988.1847</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1110923.1847</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1066806.1847</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1108833.1847</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1132236.1847</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1174321.1847</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1146299.1847</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1190190.1847</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-1228900.1847</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-1252864.1847</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-1216258.1847</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-1273736.2567</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-1250561.2567</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-1212976.2567</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-1190405.2567</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-1155304.2567</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-1715821.8637</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1692389.8637</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-1670610.8637</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1631083.8637</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1587111.8637</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1542672.8637</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1569069.8637</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1605041.8637</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1574312.8637</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1616026.8637</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1616026.8637</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-1730576.9129</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-1680419.9129</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1701833.9129</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1748604.9129</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1776393.9129</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1808508.9129</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1845006.9129</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1896539.9129</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-1874955.9129</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1854992.9129</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1854992.9129</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1860239.9129</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1982471.5349</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1958921.5349</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-2044474.3254</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-2004213.3254</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-2023771.3254</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-1998135.3254</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-2045466.3254</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-2045466.3254</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-1917401.3254</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-1949544.3254</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-1899956.3254</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -30646,14 +30646,10 @@
         <v>-2551800.1757</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J917" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
@@ -30683,19 +30679,11 @@
         <v>-2500913.1757</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J918" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30724,19 +30712,11 @@
         <v>-2469391.1757</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J919" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30798,14 +30778,10 @@
         <v>-2453146.1757</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J921" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
@@ -30838,14 +30814,8 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30874,19 +30844,11 @@
         <v>-2505271.1757</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="J923" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30915,14 +30877,10 @@
         <v>-2463328.1757</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="J924" t="n">
-        <v>1.818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
@@ -30952,19 +30910,11 @@
         <v>-2432798.1757</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J925" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30996,14 +30946,8 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32715,14 +32659,10 @@
         <v>-2806410.6751</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
-      </c>
-      <c r="I978" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J978" t="n">
-        <v>1.803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
@@ -32752,97 +32692,89 @@
         <v>-2764227.6751</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="J979" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="K979" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
+      <c r="L979" t="n">
+        <v>1</v>
+      </c>
+      <c r="M979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F980" t="n">
+        <v>36274</v>
+      </c>
+      <c r="G980" t="n">
+        <v>-2764227.6751</v>
+      </c>
+      <c r="H980" t="n">
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="J980" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="K980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
+      <c r="M980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F981" t="n">
+        <v>19580</v>
+      </c>
+      <c r="G981" t="n">
+        <v>-2764227.6751</v>
+      </c>
+      <c r="H981" t="n">
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="J981" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="K981" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L979" t="n">
-        <v>1</v>
-      </c>
-      <c r="M979" t="inlineStr"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F980" t="n">
-        <v>36274</v>
-      </c>
-      <c r="G980" t="n">
-        <v>-2764227.6751</v>
-      </c>
-      <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J980" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L980" t="n">
-        <v>1</v>
-      </c>
-      <c r="M980" t="inlineStr"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F981" t="n">
-        <v>19580</v>
-      </c>
-      <c r="G981" t="n">
-        <v>-2764227.6751</v>
-      </c>
-      <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="J981" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33486,9 +33418,11 @@
         <v>-2848580.7818</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>1.806</v>
+      </c>
       <c r="J997" t="n">
         <v>1.804</v>
       </c>
@@ -33812,9 +33746,11 @@
         <v>-2716129.4157</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>1.811</v>
+      </c>
       <c r="J1005" t="n">
         <v>1.804</v>
       </c>
@@ -33851,9 +33787,11 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1006" t="n">
         <v>1.804</v>
       </c>
@@ -33890,9 +33828,11 @@
         <v>-2676287.4157</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1007" t="n">
         <v>1.804</v>
       </c>
@@ -33929,9 +33869,11 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1008" t="n">
         <v>1.804</v>
       </c>
@@ -33968,9 +33910,11 @@
         <v>-2715103.4157</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>1.811</v>
+      </c>
       <c r="J1009" t="n">
         <v>1.804</v>
       </c>
@@ -34007,9 +33951,11 @@
         <v>-2678238.4157</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>1.811</v>
+      </c>
       <c r="J1010" t="n">
         <v>1.804</v>
       </c>
@@ -34046,9 +33992,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1011" t="n">
         <v>1.804</v>
       </c>
@@ -34085,9 +34033,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1012" t="n">
         <v>1.804</v>
       </c>
@@ -34124,9 +34074,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1013" t="n">
         <v>1.804</v>
       </c>
@@ -34163,9 +34115,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1014" t="n">
         <v>1.804</v>
       </c>
@@ -34241,9 +34195,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1016" t="n">
         <v>1.804</v>
       </c>
@@ -34280,9 +34236,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1017" t="n">
         <v>1.804</v>
       </c>
@@ -34319,9 +34277,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1018" t="n">
         <v>1.804</v>
       </c>
@@ -34358,9 +34318,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1019" t="n">
         <v>1.804</v>
       </c>
@@ -34397,9 +34359,11 @@
         <v>-2712402.4157</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1020" t="n">
         <v>1.804</v>
       </c>
@@ -34436,9 +34400,11 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1021" t="n">
         <v>1.804</v>
       </c>
@@ -34475,9 +34441,11 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1022" t="n">
         <v>1.804</v>
       </c>
@@ -34514,9 +34482,11 @@
         <v>-2661941.4157</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1023" t="n">
         <v>1.804</v>
       </c>
@@ -34553,9 +34523,11 @@
         <v>-2706715.4157</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1024" t="n">
         <v>1.804</v>
       </c>
@@ -34592,9 +34564,11 @@
         <v>-2706715.4157</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1025" t="n">
         <v>1.804</v>
       </c>
@@ -34631,9 +34605,11 @@
         <v>-2664625.4157</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1026" t="n">
         <v>1.804</v>
       </c>
@@ -34670,9 +34646,11 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1027" t="n">
         <v>1.804</v>
       </c>
@@ -34709,9 +34687,11 @@
         <v>-2637371.4157</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1028" t="n">
         <v>1.804</v>
       </c>
@@ -34748,9 +34728,11 @@
         <v>-2584574.4157</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1029" t="n">
         <v>1.804</v>
       </c>
@@ -34787,9 +34769,11 @@
         <v>-2610735.4157</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>1.818</v>
+      </c>
       <c r="J1030" t="n">
         <v>1.804</v>
       </c>
@@ -34826,9 +34810,11 @@
         <v>-2579788.4157</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1031" t="n">
         <v>1.804</v>
       </c>
@@ -34865,9 +34851,11 @@
         <v>-2598567.4157</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>1.817</v>
+      </c>
       <c r="J1032" t="n">
         <v>1.804</v>
       </c>
@@ -34904,9 +34892,11 @@
         <v>-2598567.4157</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1033" t="n">
         <v>1.804</v>
       </c>
@@ -34943,9 +34933,11 @@
         <v>-2634202.4157</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1034" t="n">
         <v>1.804</v>
       </c>
@@ -34982,9 +34974,11 @@
         <v>-2679658.4157</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>1.814</v>
+      </c>
       <c r="J1035" t="n">
         <v>1.804</v>
       </c>
@@ -35021,9 +35015,11 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1036" t="n">
         <v>1.804</v>
       </c>
@@ -35060,9 +35056,11 @@
         <v>-2655365.4157</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1037" t="n">
         <v>1.804</v>
       </c>
@@ -35099,9 +35097,11 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1038" t="n">
         <v>1.804</v>
       </c>
@@ -35138,9 +35138,11 @@
         <v>-2695031.4157</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1039" t="n">
         <v>1.804</v>
       </c>
@@ -35177,9 +35179,11 @@
         <v>-2659303.4157</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>1.812</v>
+      </c>
       <c r="J1040" t="n">
         <v>1.804</v>
       </c>
@@ -35216,9 +35220,11 @@
         <v>-2632115.4157</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1041" t="n">
         <v>1.804</v>
       </c>
@@ -35255,9 +35261,11 @@
         <v>-2676706.4157</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>1.814</v>
+      </c>
       <c r="J1042" t="n">
         <v>1.804</v>
       </c>
@@ -35294,9 +35302,11 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1043" t="n">
         <v>1.804</v>
       </c>
@@ -35333,9 +35343,11 @@
         <v>-2634135.4157</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>1.814</v>
+      </c>
       <c r="J1044" t="n">
         <v>1.804</v>
       </c>
@@ -35372,9 +35384,11 @@
         <v>-2594876.4157</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>1.814</v>
+      </c>
       <c r="J1045" t="n">
         <v>1.804</v>
       </c>
@@ -35411,9 +35425,11 @@
         <v>-2631042.4157</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1046" t="n">
         <v>1.804</v>
       </c>
@@ -35450,9 +35466,11 @@
         <v>-2682883.4157</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>1.815</v>
+      </c>
       <c r="J1047" t="n">
         <v>1.804</v>
       </c>
@@ -35489,9 +35507,11 @@
         <v>-2658009.4157</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>1.814</v>
+      </c>
       <c r="J1048" t="n">
         <v>1.804</v>
       </c>
@@ -35528,9 +35548,11 @@
         <v>-2698049.4157</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>1.815</v>
+      </c>
       <c r="J1049" t="n">
         <v>1.804</v>
       </c>
@@ -35567,9 +35589,11 @@
         <v>-2676589.4157</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>1.813</v>
+      </c>
       <c r="J1050" t="n">
         <v>1.804</v>
       </c>
@@ -35606,9 +35630,11 @@
         <v>-2626146.4157</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>1.815</v>
+      </c>
       <c r="J1051" t="n">
         <v>1.804</v>
       </c>
@@ -35645,9 +35671,11 @@
         <v>-2661943.4157</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>1.818</v>
+      </c>
       <c r="J1052" t="n">
         <v>1.804</v>
       </c>
@@ -35684,9 +35712,11 @@
         <v>-2630837.4157</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1053" t="n">
         <v>1.804</v>
       </c>
@@ -35723,9 +35753,11 @@
         <v>-2676274.4157</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>1.818</v>
+      </c>
       <c r="J1054" t="n">
         <v>1.804</v>
       </c>
@@ -35762,9 +35794,11 @@
         <v>-2624332.4157</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>1.815</v>
+      </c>
       <c r="J1055" t="n">
         <v>1.804</v>
       </c>
@@ -35801,9 +35835,11 @@
         <v>-2588300.4157</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>1.816</v>
+      </c>
       <c r="J1056" t="n">
         <v>1.804</v>
       </c>
